--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Uts2-Uts2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Uts2-Uts2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Uts2</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03644733333333334</v>
+        <v>0.2089186666666667</v>
       </c>
       <c r="H2">
-        <v>0.109342</v>
+        <v>0.626756</v>
       </c>
       <c r="I2">
-        <v>0.0475118027779166</v>
+        <v>0.37013200608741</v>
       </c>
       <c r="J2">
-        <v>0.04751180277791658</v>
+        <v>0.37013200608741</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.024594</v>
+        <v>0.001025333333333333</v>
       </c>
       <c r="N2">
-        <v>0.073782</v>
+        <v>0.003076</v>
       </c>
       <c r="O2">
-        <v>0.04423986012476526</v>
+        <v>0.002407942766738764</v>
       </c>
       <c r="P2">
-        <v>0.04423986012476525</v>
+        <v>0.002407942766738764</v>
       </c>
       <c r="Q2">
-        <v>0.0008963857160000002</v>
+        <v>0.0002142112728888889</v>
       </c>
       <c r="R2">
-        <v>0.008067471444000001</v>
+        <v>0.001927901456</v>
       </c>
       <c r="S2">
-        <v>0.002101915509170464</v>
+        <v>0.0008912566867966871</v>
       </c>
       <c r="T2">
-        <v>0.002101915509170463</v>
+        <v>0.0008912566867966871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03644733333333334</v>
+        <v>0.2089186666666667</v>
       </c>
       <c r="H3">
-        <v>0.109342</v>
+        <v>0.626756</v>
       </c>
       <c r="I3">
-        <v>0.0475118027779166</v>
+        <v>0.37013200608741</v>
       </c>
       <c r="J3">
-        <v>0.04751180277791658</v>
+        <v>0.37013200608741</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>1.231992</v>
       </c>
       <c r="O3">
-        <v>0.7387052906512401</v>
+        <v>0.9644233501560544</v>
       </c>
       <c r="P3">
-        <v>0.73870529065124</v>
+        <v>0.9644233501560544</v>
       </c>
       <c r="Q3">
-        <v>0.014967607696</v>
+        <v>0.085795375328</v>
       </c>
       <c r="R3">
-        <v>0.134708469264</v>
+        <v>0.7721583779519999</v>
       </c>
       <c r="S3">
-        <v>0.03509722008042528</v>
+        <v>0.3569639493108011</v>
       </c>
       <c r="T3">
-        <v>0.03509722008042526</v>
+        <v>0.3569639493108011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03644733333333334</v>
+        <v>0.2089186666666667</v>
       </c>
       <c r="H4">
-        <v>0.109342</v>
+        <v>0.626756</v>
       </c>
       <c r="I4">
-        <v>0.0475118027779166</v>
+        <v>0.37013200608741</v>
       </c>
       <c r="J4">
-        <v>0.04751180277791658</v>
+        <v>0.37013200608741</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.091128</v>
+        <v>0.013089</v>
       </c>
       <c r="N4">
-        <v>0.273384</v>
+        <v>0.039267</v>
       </c>
       <c r="O4">
-        <v>0.1639216871370907</v>
+        <v>0.03073884545563428</v>
       </c>
       <c r="P4">
-        <v>0.1639216871370907</v>
+        <v>0.03073884545563428</v>
       </c>
       <c r="Q4">
-        <v>0.003321372592000001</v>
+        <v>0.002734536428000001</v>
       </c>
       <c r="R4">
-        <v>0.02989235332800001</v>
+        <v>0.024610827852</v>
       </c>
       <c r="S4">
-        <v>0.0077882148702808</v>
+        <v>0.01137743053330478</v>
       </c>
       <c r="T4">
-        <v>0.007788214870280799</v>
+        <v>0.01137743053330478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.03644733333333334</v>
+        <v>0.2089186666666667</v>
       </c>
       <c r="H5">
-        <v>0.109342</v>
+        <v>0.626756</v>
       </c>
       <c r="I5">
-        <v>0.0475118027779166</v>
+        <v>0.37013200608741</v>
       </c>
       <c r="J5">
-        <v>0.04751180277791658</v>
+        <v>0.37013200608741</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.029538</v>
+        <v>0.001034666666666667</v>
       </c>
       <c r="N5">
-        <v>0.088614</v>
+        <v>0.003104</v>
       </c>
       <c r="O5">
-        <v>0.05313316208690397</v>
+        <v>0.002429861621572537</v>
       </c>
       <c r="P5">
-        <v>0.05313316208690396</v>
+        <v>0.002429861621572537</v>
       </c>
       <c r="Q5">
-        <v>0.001076581332</v>
+        <v>0.0002161611804444444</v>
       </c>
       <c r="R5">
-        <v>0.009689231988000001</v>
+        <v>0.001945450624</v>
       </c>
       <c r="S5">
-        <v>0.002524452318040057</v>
+        <v>0.0008993695565074501</v>
       </c>
       <c r="T5">
-        <v>0.002524452318040056</v>
+        <v>0.0008993695565074502</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.04690766666666667</v>
+        <v>0.04690766666666666</v>
       </c>
       <c r="H6">
         <v>0.140723</v>
       </c>
       <c r="I6">
-        <v>0.06114762325837059</v>
+        <v>0.08310424837199577</v>
       </c>
       <c r="J6">
-        <v>0.06114762325837058</v>
+        <v>0.08310424837199579</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.024594</v>
+        <v>0.001025333333333333</v>
       </c>
       <c r="N6">
-        <v>0.073782</v>
+        <v>0.003076</v>
       </c>
       <c r="O6">
-        <v>0.04423986012476526</v>
+        <v>0.002407942766738764</v>
       </c>
       <c r="P6">
-        <v>0.04423986012476525</v>
+        <v>0.002407942766738764</v>
       </c>
       <c r="Q6">
-        <v>0.001153647154</v>
+        <v>4.809599422222222E-05</v>
       </c>
       <c r="R6">
-        <v>0.010382824386</v>
+        <v>0.000432863948</v>
       </c>
       <c r="S6">
-        <v>0.002705162299912158</v>
+        <v>0.0002001102737526089</v>
       </c>
       <c r="T6">
-        <v>0.002705162299912157</v>
+        <v>0.000200110273752609</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.04690766666666667</v>
+        <v>0.04690766666666666</v>
       </c>
       <c r="H7">
         <v>0.140723</v>
       </c>
       <c r="I7">
-        <v>0.06114762325837059</v>
+        <v>0.08310424837199577</v>
       </c>
       <c r="J7">
-        <v>0.06114762325837058</v>
+        <v>0.08310424837199579</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +874,10 @@
         <v>1.231992</v>
       </c>
       <c r="O7">
-        <v>0.7387052906512401</v>
+        <v>0.9644233501560544</v>
       </c>
       <c r="P7">
-        <v>0.73870529065124</v>
+        <v>0.9644233501560544</v>
       </c>
       <c r="Q7">
         <v>0.019263290024</v>
@@ -889,10 +886,10 @@
         <v>0.173369610216</v>
       </c>
       <c r="S7">
-        <v>0.04517007281170718</v>
+        <v>0.08014767762712099</v>
       </c>
       <c r="T7">
-        <v>0.04517007281170717</v>
+        <v>0.08014767762712101</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -915,46 +912,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.04690766666666667</v>
+        <v>0.04690766666666666</v>
       </c>
       <c r="H8">
         <v>0.140723</v>
       </c>
       <c r="I8">
-        <v>0.06114762325837059</v>
+        <v>0.08310424837199577</v>
       </c>
       <c r="J8">
-        <v>0.06114762325837058</v>
+        <v>0.08310424837199579</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.091128</v>
+        <v>0.013089</v>
       </c>
       <c r="N8">
-        <v>0.273384</v>
+        <v>0.039267</v>
       </c>
       <c r="O8">
-        <v>0.1639216871370907</v>
+        <v>0.03073884545563428</v>
       </c>
       <c r="P8">
-        <v>0.1639216871370907</v>
+        <v>0.03073884545563428</v>
       </c>
       <c r="Q8">
-        <v>0.004274601848</v>
+        <v>0.000613974449</v>
       </c>
       <c r="R8">
-        <v>0.03847141663200001</v>
+        <v>0.005525770041</v>
       </c>
       <c r="S8">
-        <v>0.01002342156893531</v>
+        <v>0.002554528647413425</v>
       </c>
       <c r="T8">
-        <v>0.01002342156893531</v>
+        <v>0.002554528647413426</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.04690766666666667</v>
+        <v>0.04690766666666666</v>
       </c>
       <c r="H9">
         <v>0.140723</v>
       </c>
       <c r="I9">
-        <v>0.06114762325837059</v>
+        <v>0.08310424837199577</v>
       </c>
       <c r="J9">
-        <v>0.06114762325837058</v>
+        <v>0.08310424837199579</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.029538</v>
+        <v>0.001034666666666667</v>
       </c>
       <c r="N9">
-        <v>0.088614</v>
+        <v>0.003104</v>
       </c>
       <c r="O9">
-        <v>0.05313316208690397</v>
+        <v>0.002429861621572537</v>
       </c>
       <c r="P9">
-        <v>0.05313316208690396</v>
+        <v>0.002429861621572537</v>
       </c>
       <c r="Q9">
-        <v>0.001385558658</v>
+        <v>4.85337991111111E-05</v>
       </c>
       <c r="R9">
-        <v>0.012470027922</v>
+        <v>0.0004368041919999999</v>
       </c>
       <c r="S9">
-        <v>0.003248966577815944</v>
+        <v>0.0002019318237087445</v>
       </c>
       <c r="T9">
-        <v>0.003248966577815942</v>
+        <v>0.0002019318237087446</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1021,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1039,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1592386666666667</v>
+        <v>0.1817646666666667</v>
       </c>
       <c r="H10">
-        <v>0.477716</v>
+        <v>0.5452940000000001</v>
       </c>
       <c r="I10">
-        <v>0.2075794148255492</v>
+        <v>0.322024459482523</v>
       </c>
       <c r="J10">
-        <v>0.2075794148255492</v>
+        <v>0.322024459482523</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1054,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.024594</v>
+        <v>0.001025333333333333</v>
       </c>
       <c r="N10">
-        <v>0.073782</v>
+        <v>0.003076</v>
       </c>
       <c r="O10">
-        <v>0.04423986012476526</v>
+        <v>0.002407942766738764</v>
       </c>
       <c r="P10">
-        <v>0.04423986012476525</v>
+        <v>0.002407942766738764</v>
       </c>
       <c r="Q10">
-        <v>0.003916315768</v>
+        <v>0.0001863693715555556</v>
       </c>
       <c r="R10">
-        <v>0.035246841912</v>
+        <v>0.001677324344</v>
       </c>
       <c r="S10">
-        <v>0.00918328427666292</v>
+        <v>0.0007754164679239014</v>
       </c>
       <c r="T10">
-        <v>0.009183284276662918</v>
+        <v>0.0007754164679239014</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1083,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1101,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1592386666666667</v>
+        <v>0.1817646666666667</v>
       </c>
       <c r="H11">
-        <v>0.477716</v>
+        <v>0.5452940000000001</v>
       </c>
       <c r="I11">
-        <v>0.2075794148255492</v>
+        <v>0.322024459482523</v>
       </c>
       <c r="J11">
-        <v>0.2075794148255492</v>
+        <v>0.322024459482523</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1122,22 @@
         <v>1.231992</v>
       </c>
       <c r="O11">
-        <v>0.7387052906512401</v>
+        <v>0.9644233501560544</v>
       </c>
       <c r="P11">
-        <v>0.73870529065124</v>
+        <v>0.9644233501560544</v>
       </c>
       <c r="Q11">
-        <v>0.06539358780799999</v>
+        <v>0.07464420507200001</v>
       </c>
       <c r="R11">
-        <v>0.588542290272</v>
+        <v>0.671797845648</v>
       </c>
       <c r="S11">
-        <v>0.1533400119619217</v>
+        <v>0.3105679080463274</v>
       </c>
       <c r="T11">
-        <v>0.1533400119619216</v>
+        <v>0.3105679080463274</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1163,46 +1160,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1592386666666667</v>
+        <v>0.1817646666666667</v>
       </c>
       <c r="H12">
-        <v>0.477716</v>
+        <v>0.5452940000000001</v>
       </c>
       <c r="I12">
-        <v>0.2075794148255492</v>
+        <v>0.322024459482523</v>
       </c>
       <c r="J12">
-        <v>0.2075794148255492</v>
+        <v>0.322024459482523</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.091128</v>
+        <v>0.013089</v>
       </c>
       <c r="N12">
-        <v>0.273384</v>
+        <v>0.039267</v>
       </c>
       <c r="O12">
-        <v>0.1639216871370907</v>
+        <v>0.03073884545563428</v>
       </c>
       <c r="P12">
-        <v>0.1639216871370907</v>
+        <v>0.03073884545563428</v>
       </c>
       <c r="Q12">
-        <v>0.014511101216</v>
+        <v>0.002379117722000001</v>
       </c>
       <c r="R12">
-        <v>0.130599910944</v>
+        <v>0.021412059498</v>
       </c>
       <c r="S12">
-        <v>0.03402676789313404</v>
+        <v>0.009898660092967438</v>
       </c>
       <c r="T12">
-        <v>0.03402676789313404</v>
+        <v>0.009898660092967438</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1592386666666667</v>
+        <v>0.1817646666666667</v>
       </c>
       <c r="H13">
-        <v>0.477716</v>
+        <v>0.5452940000000001</v>
       </c>
       <c r="I13">
-        <v>0.2075794148255492</v>
+        <v>0.322024459482523</v>
       </c>
       <c r="J13">
-        <v>0.2075794148255492</v>
+        <v>0.322024459482523</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1240,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.029538</v>
+        <v>0.001034666666666667</v>
       </c>
       <c r="N13">
-        <v>0.088614</v>
+        <v>0.003104</v>
       </c>
       <c r="O13">
-        <v>0.05313316208690397</v>
+        <v>0.002429861621572537</v>
       </c>
       <c r="P13">
-        <v>0.05313316208690396</v>
+        <v>0.002429861621572537</v>
       </c>
       <c r="Q13">
-        <v>0.004703591736</v>
+        <v>0.0001880658417777778</v>
       </c>
       <c r="R13">
-        <v>0.04233232562399999</v>
+        <v>0.001692592576</v>
       </c>
       <c r="S13">
-        <v>0.01102935069383058</v>
+        <v>0.0007824748753042229</v>
       </c>
       <c r="T13">
-        <v>0.01102935069383058</v>
+        <v>0.000782474875304223</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1269,31 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.323114</v>
+        <v>0.04964</v>
       </c>
       <c r="H14">
-        <v>0.9693419999999999</v>
+        <v>0.14892</v>
       </c>
       <c r="I14">
-        <v>0.4212030686136271</v>
+        <v>0.08794500307382312</v>
       </c>
       <c r="J14">
-        <v>0.4212030686136271</v>
+        <v>0.08794500307382314</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.024594</v>
+        <v>0.001025333333333333</v>
       </c>
       <c r="N14">
-        <v>0.073782</v>
+        <v>0.003076</v>
       </c>
       <c r="O14">
-        <v>0.04423986012476526</v>
+        <v>0.002407942766738764</v>
       </c>
       <c r="P14">
-        <v>0.04423986012476525</v>
+        <v>0.002407942766738764</v>
       </c>
       <c r="Q14">
-        <v>0.007946665715999999</v>
+        <v>5.089754666666666E-05</v>
       </c>
       <c r="R14">
-        <v>0.07151999144399999</v>
+        <v>0.00045807792</v>
       </c>
       <c r="S14">
-        <v>0.01863396483958877</v>
+        <v>0.0002117665340224308</v>
       </c>
       <c r="T14">
-        <v>0.01863396483958876</v>
+        <v>0.0002117665340224308</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1331,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.323114</v>
+        <v>0.04964</v>
       </c>
       <c r="H15">
-        <v>0.9693419999999999</v>
+        <v>0.14892</v>
       </c>
       <c r="I15">
-        <v>0.4212030686136271</v>
+        <v>0.08794500307382312</v>
       </c>
       <c r="J15">
-        <v>0.4212030686136271</v>
+        <v>0.08794500307382314</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1370,22 @@
         <v>1.231992</v>
       </c>
       <c r="O15">
-        <v>0.7387052906512401</v>
+        <v>0.9644233501560544</v>
       </c>
       <c r="P15">
-        <v>0.73870529065124</v>
+        <v>0.9644233501560544</v>
       </c>
       <c r="Q15">
-        <v>0.132691287696</v>
+        <v>0.02038536096</v>
       </c>
       <c r="R15">
-        <v>1.194221589264</v>
+        <v>0.18346824864</v>
       </c>
       <c r="S15">
-        <v>0.3111449352234237</v>
+        <v>0.084816214493941</v>
       </c>
       <c r="T15">
-        <v>0.3111449352234236</v>
+        <v>0.08481621449394101</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1393,61 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.323114</v>
+        <v>0.04964</v>
       </c>
       <c r="H16">
-        <v>0.9693419999999999</v>
+        <v>0.14892</v>
       </c>
       <c r="I16">
-        <v>0.4212030686136271</v>
+        <v>0.08794500307382312</v>
       </c>
       <c r="J16">
-        <v>0.4212030686136271</v>
+        <v>0.08794500307382314</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.091128</v>
+        <v>0.013089</v>
       </c>
       <c r="N16">
-        <v>0.273384</v>
+        <v>0.039267</v>
       </c>
       <c r="O16">
-        <v>0.1639216871370907</v>
+        <v>0.03073884545563428</v>
       </c>
       <c r="P16">
-        <v>0.1639216871370907</v>
+        <v>0.03073884545563428</v>
       </c>
       <c r="Q16">
-        <v>0.029444732592</v>
+        <v>0.00064973796</v>
       </c>
       <c r="R16">
-        <v>0.265002593328</v>
+        <v>0.005847641640000001</v>
       </c>
       <c r="S16">
-        <v>0.06904431763446553</v>
+        <v>0.002703327858081531</v>
       </c>
       <c r="T16">
-        <v>0.06904431763446552</v>
+        <v>0.002703327858081531</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.323114</v>
+        <v>0.04964</v>
       </c>
       <c r="H17">
-        <v>0.9693419999999999</v>
+        <v>0.14892</v>
       </c>
       <c r="I17">
-        <v>0.4212030686136271</v>
+        <v>0.08794500307382312</v>
       </c>
       <c r="J17">
-        <v>0.4212030686136271</v>
+        <v>0.08794500307382314</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1488,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.029538</v>
+        <v>0.001034666666666667</v>
       </c>
       <c r="N17">
-        <v>0.088614</v>
+        <v>0.003104</v>
       </c>
       <c r="O17">
-        <v>0.05313316208690397</v>
+        <v>0.002429861621572537</v>
       </c>
       <c r="P17">
-        <v>0.05313316208690396</v>
+        <v>0.002429861621572537</v>
       </c>
       <c r="Q17">
-        <v>0.009544141331999998</v>
+        <v>5.136085333333333E-05</v>
       </c>
       <c r="R17">
-        <v>0.085897271988</v>
+        <v>0.00046224768</v>
       </c>
       <c r="S17">
-        <v>0.02237985091614918</v>
+        <v>0.0002136941877781616</v>
       </c>
       <c r="T17">
-        <v>0.02237985091614918</v>
+        <v>0.0002136941877781616</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1517,10 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -1535,16 +1532,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.10098</v>
+        <v>0.07721266666666667</v>
       </c>
       <c r="H18">
-        <v>0.30294</v>
+        <v>0.231638</v>
       </c>
       <c r="I18">
-        <v>0.1316349210142676</v>
+        <v>0.1367942829842482</v>
       </c>
       <c r="J18">
-        <v>0.1316349210142676</v>
+        <v>0.1367942829842482</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,28 +1550,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.024594</v>
+        <v>0.001025333333333333</v>
       </c>
       <c r="N18">
-        <v>0.073782</v>
+        <v>0.003076</v>
       </c>
       <c r="O18">
-        <v>0.04423986012476526</v>
+        <v>0.002407942766738764</v>
       </c>
       <c r="P18">
-        <v>0.04423986012476525</v>
+        <v>0.002407942766738764</v>
       </c>
       <c r="Q18">
-        <v>0.00248350212</v>
+        <v>7.916872088888889E-05</v>
       </c>
       <c r="R18">
-        <v>0.02235151908</v>
+        <v>0.0007125184880000001</v>
       </c>
       <c r="S18">
-        <v>0.005823510493205723</v>
+        <v>0.0003293928042431361</v>
       </c>
       <c r="T18">
-        <v>0.005823510493205721</v>
+        <v>0.0003293928042431361</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1579,10 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -1597,16 +1594,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.10098</v>
+        <v>0.07721266666666667</v>
       </c>
       <c r="H19">
-        <v>0.30294</v>
+        <v>0.231638</v>
       </c>
       <c r="I19">
-        <v>0.1316349210142676</v>
+        <v>0.1367942829842482</v>
       </c>
       <c r="J19">
-        <v>0.1316349210142676</v>
+        <v>0.1367942829842482</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1618,22 @@
         <v>1.231992</v>
       </c>
       <c r="O19">
-        <v>0.7387052906512401</v>
+        <v>0.9644233501560544</v>
       </c>
       <c r="P19">
-        <v>0.73870529065124</v>
+        <v>0.9644233501560544</v>
       </c>
       <c r="Q19">
-        <v>0.04146885072</v>
+        <v>0.031708462544</v>
       </c>
       <c r="R19">
-        <v>0.37321965648</v>
+        <v>0.285376162896</v>
       </c>
       <c r="S19">
-        <v>0.09723941258769761</v>
+        <v>0.131927600677864</v>
       </c>
       <c r="T19">
-        <v>0.09723941258769757</v>
+        <v>0.131927600677864</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1641,10 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1659,46 +1656,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.10098</v>
+        <v>0.07721266666666667</v>
       </c>
       <c r="H20">
-        <v>0.30294</v>
+        <v>0.231638</v>
       </c>
       <c r="I20">
-        <v>0.1316349210142676</v>
+        <v>0.1367942829842482</v>
       </c>
       <c r="J20">
-        <v>0.1316349210142676</v>
+        <v>0.1367942829842482</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.091128</v>
+        <v>0.013089</v>
       </c>
       <c r="N20">
-        <v>0.273384</v>
+        <v>0.039267</v>
       </c>
       <c r="O20">
-        <v>0.1639216871370907</v>
+        <v>0.03073884545563428</v>
       </c>
       <c r="P20">
-        <v>0.1639216871370907</v>
+        <v>0.03073884545563428</v>
       </c>
       <c r="Q20">
-        <v>0.00920210544</v>
+        <v>0.001010636594</v>
       </c>
       <c r="R20">
-        <v>0.08281894896</v>
+        <v>0.009095729346000002</v>
       </c>
       <c r="S20">
-        <v>0.02157781833881642</v>
+        <v>0.004204898323867108</v>
       </c>
       <c r="T20">
-        <v>0.02157781833881642</v>
+        <v>0.004204898323867109</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,13 +1703,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,16 +1718,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.10098</v>
+        <v>0.07721266666666667</v>
       </c>
       <c r="H21">
-        <v>0.30294</v>
+        <v>0.231638</v>
       </c>
       <c r="I21">
-        <v>0.1316349210142676</v>
+        <v>0.1367942829842482</v>
       </c>
       <c r="J21">
-        <v>0.1316349210142676</v>
+        <v>0.1367942829842482</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,276 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.029538</v>
+        <v>0.001034666666666667</v>
       </c>
       <c r="N21">
-        <v>0.088614</v>
+        <v>0.003104</v>
       </c>
       <c r="O21">
-        <v>0.05313316208690397</v>
+        <v>0.002429861621572537</v>
       </c>
       <c r="P21">
-        <v>0.05313316208690396</v>
+        <v>0.002429861621572537</v>
       </c>
       <c r="Q21">
-        <v>0.00298274724</v>
+        <v>7.988937244444443E-05</v>
       </c>
       <c r="R21">
-        <v>0.02684472516</v>
+        <v>0.000719004352</v>
       </c>
       <c r="S21">
-        <v>0.006994179594547884</v>
+        <v>0.0003323911782739578</v>
       </c>
       <c r="T21">
-        <v>0.006994179594547881</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.100434</v>
-      </c>
-      <c r="H22">
-        <v>0.301302</v>
-      </c>
-      <c r="I22">
-        <v>0.1309231695102689</v>
-      </c>
-      <c r="J22">
-        <v>0.1309231695102689</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.024594</v>
-      </c>
-      <c r="N22">
-        <v>0.073782</v>
-      </c>
-      <c r="O22">
-        <v>0.04423986012476526</v>
-      </c>
-      <c r="P22">
-        <v>0.04423986012476525</v>
-      </c>
-      <c r="Q22">
-        <v>0.002470073796</v>
-      </c>
-      <c r="R22">
-        <v>0.022230664164</v>
-      </c>
-      <c r="S22">
-        <v>0.00579202270622523</v>
-      </c>
-      <c r="T22">
-        <v>0.005792022706225228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.100434</v>
-      </c>
-      <c r="H23">
-        <v>0.301302</v>
-      </c>
-      <c r="I23">
-        <v>0.1309231695102689</v>
-      </c>
-      <c r="J23">
-        <v>0.1309231695102689</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.410664</v>
-      </c>
-      <c r="N23">
-        <v>1.231992</v>
-      </c>
-      <c r="O23">
-        <v>0.7387052906512401</v>
-      </c>
-      <c r="P23">
-        <v>0.73870529065124</v>
-      </c>
-      <c r="Q23">
-        <v>0.041244628176</v>
-      </c>
-      <c r="R23">
-        <v>0.371201653584</v>
-      </c>
-      <c r="S23">
-        <v>0.0967136379860648</v>
-      </c>
-      <c r="T23">
-        <v>0.09671363798606476</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.100434</v>
-      </c>
-      <c r="H24">
-        <v>0.301302</v>
-      </c>
-      <c r="I24">
-        <v>0.1309231695102689</v>
-      </c>
-      <c r="J24">
-        <v>0.1309231695102689</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.091128</v>
-      </c>
-      <c r="N24">
-        <v>0.273384</v>
-      </c>
-      <c r="O24">
-        <v>0.1639216871370907</v>
-      </c>
-      <c r="P24">
-        <v>0.1639216871370907</v>
-      </c>
-      <c r="Q24">
-        <v>0.009152349552</v>
-      </c>
-      <c r="R24">
-        <v>0.08237114596800001</v>
-      </c>
-      <c r="S24">
-        <v>0.0214611468314586</v>
-      </c>
-      <c r="T24">
-        <v>0.02146114683145859</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.100434</v>
-      </c>
-      <c r="H25">
-        <v>0.301302</v>
-      </c>
-      <c r="I25">
-        <v>0.1309231695102689</v>
-      </c>
-      <c r="J25">
-        <v>0.1309231695102689</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.029538</v>
-      </c>
-      <c r="N25">
-        <v>0.088614</v>
-      </c>
-      <c r="O25">
-        <v>0.05313316208690397</v>
-      </c>
-      <c r="P25">
-        <v>0.05313316208690396</v>
-      </c>
-      <c r="Q25">
-        <v>0.002966619492</v>
-      </c>
-      <c r="R25">
-        <v>0.026699575428</v>
-      </c>
-      <c r="S25">
-        <v>0.006956361986520323</v>
-      </c>
-      <c r="T25">
-        <v>0.006956361986520321</v>
+        <v>0.0003323911782739579</v>
       </c>
     </row>
   </sheetData>
